--- a/biology/Médecine/Acide_3-uréidoisobutyrique/Acide_3-uréidoisobutyrique.xlsx
+++ b/biology/Médecine/Acide_3-uréidoisobutyrique/Acide_3-uréidoisobutyrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acide_3-ur%C3%A9idoisobutyrique</t>
+          <t>Acide_3-uréidoisobutyrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’acide 3-uréidoisobutyrique, également appelé acide β-uréidoisobutyrique, est un intermédiaire métabolique de la dégradation de la thymine. Chez l'humain, elle s'accumule dans l'urine des patients souffrant d'un déficit en bêta-uréidopropionase[2] (EC 3.5.1.6), ce qui permet de dépister les anomalies dans le métabolisme des pyrimidines et prévenir l'usage du 5-fluorouracile comme néoplasique lorsqu'il pourrait s'avérer gravement toxique pour l'organisme[3].
+L’acide 3-uréidoisobutyrique, également appelé acide β-uréidoisobutyrique, est un intermédiaire métabolique de la dégradation de la thymine. Chez l'humain, elle s'accumule dans l'urine des patients souffrant d'un déficit en bêta-uréidopropionase (EC 3.5.1.6), ce qui permet de dépister les anomalies dans le métabolisme des pyrimidines et prévenir l'usage du 5-fluorouracile comme néoplasique lorsqu'il pourrait s'avérer gravement toxique pour l'organisme.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acide_3-ur%C3%A9idoisobutyrique</t>
+          <t>Acide_3-uréidoisobutyrique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acide 3-uréidoisobutyrique possède un atome de carbone asymétrique. Il est donc chiral et se présente sous la forme d'une paire d'énantiomères R et S.
 </t>
